--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hspg2-Col13a1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H2">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I2">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J2">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N2">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O2">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P2">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q2">
-        <v>12.29451789116489</v>
+        <v>21.20213502474978</v>
       </c>
       <c r="R2">
-        <v>110.650661020484</v>
+        <v>190.819215222748</v>
       </c>
       <c r="S2">
-        <v>0.1601597554877916</v>
+        <v>0.1904169018680918</v>
       </c>
       <c r="T2">
-        <v>0.1601597554877916</v>
+        <v>0.1904169018680918</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H3">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I3">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J3">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.192158</v>
       </c>
       <c r="O3">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P3">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q3">
-        <v>7.555905845594889</v>
+        <v>7.39254978903911</v>
       </c>
       <c r="R3">
-        <v>68.00315261035401</v>
+        <v>66.53294810135199</v>
       </c>
       <c r="S3">
-        <v>0.09843021446077967</v>
+        <v>0.06639267347798884</v>
       </c>
       <c r="T3">
-        <v>0.09843021446077968</v>
+        <v>0.06639267347798886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>117.9639543333333</v>
+        <v>115.4136146666667</v>
       </c>
       <c r="H4">
-        <v>353.8918630000001</v>
+        <v>346.240844</v>
       </c>
       <c r="I4">
-        <v>0.2661690114309019</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="J4">
-        <v>0.266169011430902</v>
+        <v>0.2619217538490851</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>0.014796</v>
       </c>
       <c r="O4">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P4">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q4">
-        <v>0.581798222772</v>
+        <v>0.5692199475359999</v>
       </c>
       <c r="R4">
-        <v>5.236184004948001</v>
+        <v>5.122979527824</v>
       </c>
       <c r="S4">
-        <v>0.007579041482330666</v>
+        <v>0.005112178503004418</v>
       </c>
       <c r="T4">
-        <v>0.007579041482330667</v>
+        <v>0.005112178503004419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I5">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J5">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N5">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O5">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P5">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q5">
-        <v>29.45763701379289</v>
+        <v>51.92282081354823</v>
       </c>
       <c r="R5">
-        <v>265.118733124136</v>
+        <v>467.3053873219341</v>
       </c>
       <c r="S5">
-        <v>0.3837424113041144</v>
+        <v>0.4663201448357256</v>
       </c>
       <c r="T5">
-        <v>0.3837424113041142</v>
+        <v>0.4663201448357255</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I6">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J6">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.192158</v>
       </c>
       <c r="O6">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P6">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q6">
         <v>18.10393328801289</v>
@@ -818,10 +818,10 @@
         <v>162.935399592116</v>
       </c>
       <c r="S6">
-        <v>0.2358385708527128</v>
+        <v>0.162591875030789</v>
       </c>
       <c r="T6">
-        <v>0.2358385708527127</v>
+        <v>0.162591875030789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>847.9241019999999</v>
       </c>
       <c r="I7">
-        <v>0.6377403483780447</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="J7">
-        <v>0.6377403483780446</v>
+        <v>0.6414314537852458</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.014796</v>
       </c>
       <c r="O7">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P7">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q7">
         <v>1.393987223688</v>
@@ -880,10 +880,10 @@
         <v>12.545885013192</v>
       </c>
       <c r="S7">
-        <v>0.01815936622121763</v>
+        <v>0.01251943391873122</v>
       </c>
       <c r="T7">
-        <v>0.01815936622121763</v>
+        <v>0.01251943391873122</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>127.759785</v>
       </c>
       <c r="I8">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J8">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1042226666666667</v>
+        <v>0.1837056666666667</v>
       </c>
       <c r="N8">
-        <v>0.312668</v>
+        <v>0.5511170000000001</v>
       </c>
       <c r="O8">
-        <v>0.6017220210075787</v>
+        <v>0.7269991860920679</v>
       </c>
       <c r="P8">
-        <v>0.6017220210075785</v>
+        <v>0.7269991860920678</v>
       </c>
       <c r="Q8">
-        <v>4.438488495153333</v>
+        <v>7.823398825538333</v>
       </c>
       <c r="R8">
-        <v>39.94639645638</v>
+        <v>70.410589429845</v>
       </c>
       <c r="S8">
-        <v>0.05781985421567273</v>
+        <v>0.07026213938825053</v>
       </c>
       <c r="T8">
-        <v>0.05781985421567272</v>
+        <v>0.07026213938825053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>127.759785</v>
       </c>
       <c r="I9">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J9">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.192158</v>
       </c>
       <c r="O9">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="P9">
-        <v>0.3698034340347406</v>
+        <v>0.2534828531892131</v>
       </c>
       <c r="Q9">
         <v>2.727784974003333</v>
@@ -1004,10 +1004,10 @@
         <v>24.55006476603</v>
       </c>
       <c r="S9">
-        <v>0.03553464872124822</v>
+        <v>0.02449830468043527</v>
       </c>
       <c r="T9">
-        <v>0.03553464872124822</v>
+        <v>0.02449830468043527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>127.759785</v>
       </c>
       <c r="I10">
-        <v>0.09609064019105341</v>
+        <v>0.09664679236566912</v>
       </c>
       <c r="J10">
-        <v>0.09609064019105343</v>
+        <v>0.09664679236566913</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,10 +1054,10 @@
         <v>0.014796</v>
       </c>
       <c r="O10">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="P10">
-        <v>0.02847454495768078</v>
+        <v>0.01951796071871896</v>
       </c>
       <c r="Q10">
         <v>0.21003708654</v>
@@ -1066,10 +1066,10 @@
         <v>1.89033377886</v>
       </c>
       <c r="S10">
-        <v>0.002736137254132478</v>
+        <v>0.001886348296983317</v>
       </c>
       <c r="T10">
-        <v>0.002736137254132478</v>
+        <v>0.001886348296983317</v>
       </c>
     </row>
   </sheetData>
